--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1045345.789026701</v>
+        <v>-1047905.059594256</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>284.4288186741396</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9662774206981</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>227.1792315232368</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>106.2982951052218</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.95340549104682</v>
@@ -871,19 +871,19 @@
         <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>97.44171578858435</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>200.1627776403517</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>348.675917264526</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>27.39807895199091</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.7224286874786</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>352.0975552298098</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>250.4301205060154</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>76.585074429727</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>212.6180720598446</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.05846343488614</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238252</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960831</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>22.54881804343257</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>7.40806407903098</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>57.65182679923893</v>
+        <v>36.39209596079169</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>167.9698660663636</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>91.66636605273425</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>7.069540131683993</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>212.2737903405087</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>56.04917322725581</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>110.1444095748044</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>97.75513637220199</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>79.11532312206097</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541835</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1891.60405412151</v>
+        <v>1862.663580408542</v>
       </c>
       <c r="C2" t="n">
-        <v>1522.641537181099</v>
+        <v>1862.663580408541</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.375838574348</v>
+        <v>1575.361743363956</v>
       </c>
       <c r="E2" t="n">
-        <v>778.587585976104</v>
+        <v>1189.573490765712</v>
       </c>
       <c r="F2" t="n">
-        <v>778.587585976104</v>
+        <v>778.5875859761043</v>
       </c>
       <c r="G2" t="n">
-        <v>363.470134036005</v>
+        <v>363.4701340360051</v>
       </c>
       <c r="H2" t="n">
-        <v>65.42565911316234</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316234</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J2" t="n">
         <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183951</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887445</v>
+        <v>1022.844136887446</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064182</v>
+        <v>1548.631370064183</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.54019874618</v>
+        <v>2087.540198746181</v>
       </c>
       <c r="O2" t="n">
         <v>2583.081262767916</v>
@@ -4349,31 +4349,31 @@
         <v>2971.513095303805</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301001</v>
+        <v>3215.036478301003</v>
       </c>
       <c r="R2" t="n">
         <v>3271.282955658117</v>
       </c>
       <c r="S2" t="n">
-        <v>3271.282955658117</v>
+        <v>3159.966809007347</v>
       </c>
       <c r="T2" t="n">
-        <v>3271.282955658117</v>
+        <v>2953.792066077314</v>
       </c>
       <c r="U2" t="n">
-        <v>3041.808984422524</v>
+        <v>2953.792066077314</v>
       </c>
       <c r="V2" t="n">
-        <v>3041.808984422524</v>
+        <v>2622.729178733743</v>
       </c>
       <c r="W2" t="n">
-        <v>3041.808984422524</v>
+        <v>2622.729178733743</v>
       </c>
       <c r="X2" t="n">
-        <v>2668.343226161444</v>
+        <v>2249.263420472663</v>
       </c>
       <c r="Y2" t="n">
-        <v>2278.203894185632</v>
+        <v>2249.263420472663</v>
       </c>
     </row>
     <row r="3">
@@ -4401,22 +4401,22 @@
         <v>165.7683651841082</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158293</v>
+        <v>75.03392728158295</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316234</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J3" t="n">
         <v>156.8733478056105</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794818</v>
+        <v>391.3268380794819</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656274</v>
+        <v>752.9010302656275</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366257</v>
+        <v>1194.197926366258</v>
       </c>
       <c r="N3" t="n">
         <v>1661.583283102522</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.4142586467196</v>
+        <v>568.7601401849302</v>
       </c>
       <c r="C4" t="n">
-        <v>477.4780757188127</v>
+        <v>568.7601401849302</v>
       </c>
       <c r="D4" t="n">
-        <v>477.4780757188127</v>
+        <v>418.6435007725944</v>
       </c>
       <c r="E4" t="n">
-        <v>477.4780757188127</v>
+        <v>270.7304071902013</v>
       </c>
       <c r="F4" t="n">
-        <v>477.4780757188127</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="G4" t="n">
-        <v>309.7550528419796</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="H4" t="n">
         <v>163.3583919324016</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316234</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J4" t="n">
         <v>109.1495242182615</v>
@@ -4498,7 +4498,7 @@
         <v>965.5122071220435</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842035</v>
+        <v>1303.893008842036</v>
       </c>
       <c r="O4" t="n">
         <v>1600.426152235784</v>
@@ -4519,19 +4519,19 @@
         <v>1401.965766370401</v>
       </c>
       <c r="U4" t="n">
-        <v>1401.965766370401</v>
+        <v>1112.861798427778</v>
       </c>
       <c r="V4" t="n">
-        <v>1147.281278164514</v>
+        <v>858.1773102218907</v>
       </c>
       <c r="W4" t="n">
-        <v>1147.281278164514</v>
+        <v>568.7601401849302</v>
       </c>
       <c r="X4" t="n">
-        <v>1048.85530262049</v>
+        <v>568.7601401849302</v>
       </c>
       <c r="Y4" t="n">
-        <v>828.0627234769594</v>
+        <v>568.7601401849302</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.516858765517</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1111.554341825106</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1111.554341825106</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>725.7660892268614</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805451</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.116698829639</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.8443805240842</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="C7" t="n">
-        <v>460.8443805240842</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
         <v>163.837793613838</v>
@@ -4759,16 +4759,16 @@
         <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983425</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003252</v>
+        <v>1009.502611279996</v>
       </c>
       <c r="Y7" t="n">
-        <v>460.8443805240842</v>
+        <v>788.7100321364661</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670284</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729873</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123122</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>768.692212524878</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>761.7467117756745</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2756.377687837644</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734406</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2153.285934409298</v>
+        <v>410.1326375818733</v>
       </c>
       <c r="C10" t="n">
-        <v>2153.285934409298</v>
+        <v>241.1964546539664</v>
       </c>
       <c r="D10" t="n">
-        <v>2003.169294996962</v>
+        <v>241.1964546539664</v>
       </c>
       <c r="E10" t="n">
-        <v>1855.256201414569</v>
+        <v>241.1964546539664</v>
       </c>
       <c r="F10" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435997</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>2912.153322005523</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>2912.153322005523</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>2657.468833799637</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>2368.051663762676</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>2153.285934409298</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y10" t="n">
-        <v>2153.285934409298</v>
+        <v>591.781102412113</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5191,58 +5191,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.286319795765</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606611</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327542</v>
+        <v>855.1271669926552</v>
       </c>
       <c r="D16" t="n">
-        <v>635.1948225204187</v>
+        <v>705.0105275803195</v>
       </c>
       <c r="E16" t="n">
-        <v>487.2817289380256</v>
+        <v>557.0974339979264</v>
       </c>
       <c r="F16" t="n">
-        <v>340.3917814401153</v>
+        <v>410.207486500016</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>243.0113872148959</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>101.2995560570941</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690901</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.896109690901</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2321.683211348583</v>
+        <v>2343.157686942974</v>
       </c>
       <c r="T19" t="n">
-        <v>2102.081746371524</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.006519715722</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V19" t="n">
-        <v>1558.322031509834</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.904861472874</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="20">
@@ -5732,58 +5732,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.18352155162</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
         <v>2283.159972732779</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804958</v>
+        <v>931.4710609784062</v>
       </c>
       <c r="C22" t="n">
-        <v>615.6449305525889</v>
+        <v>762.5348780504993</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402532</v>
+        <v>612.4182386381635</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>464.5051450557704</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2027.396014107402</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1738.320787451601</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1483.636299245714</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.219129208753</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X22" t="n">
-        <v>966.2295783107356</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107355</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835328</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>697.527634571197</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>549.614540988804</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038337</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.320130882544</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676657</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.228921741679</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.228921741679</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179088</v>
+        <v>874.8686257536385</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179088</v>
+        <v>705.9324428257316</v>
       </c>
       <c r="D28" t="n">
-        <v>612.431129905573</v>
+        <v>555.8158034133958</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5180363231799</v>
+        <v>407.9027098310027</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6280888252695</v>
+        <v>261.0127623330923</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4319895401495</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625426</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6446,34 +6446,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.226968733739</v>
+        <v>801.6918836311979</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>632.755700703291</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>482.6390612909553</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159222</v>
+        <v>482.6390612909553</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>482.6390612909553</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>315.4429620058352</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>173.7311308480335</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673936</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018134</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812247</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775286</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.019547877269</v>
+        <v>983.3403484614377</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.226968733739</v>
+        <v>983.3403484614377</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954146</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,7 +6871,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,10 +6898,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,10 +7020,10 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7075,31 +7075,31 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380735</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979287</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156764</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27.95355500661981</v>
+        <v>27.95355500661958</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.308775558570233e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70.25422294654334</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842623</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>23.81950457704475</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>39.12275291770942</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>128.2679396004528</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.3469868924021</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>138.4949402405079</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9753202488363</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>73.85777223953454</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3744592024057</v>
+        <v>144.6341900408529</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>49.43558426092471</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>194.8566322838568</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.1149342575602</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>6.310863011586065</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>84.24553961896808</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>176.3785887617866</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>69.49168472642585</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.150513196504612</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225015</v>
@@ -26335,25 +26335,25 @@
         <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660709</v>
       </c>
       <c r="N2" t="n">
+        <v>205260.4424660709</v>
+      </c>
+      <c r="O2" t="n">
         <v>205260.4424660708</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="P2" t="n">
-        <v>205260.4424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074576</v>
+        <v>14479.05232074572</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>213977.8894125531</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022609</v>
+        <v>3495.241841022593</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363184</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11698.02956068579</v>
+        <v>11698.02956068578</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26433,28 +26433,28 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488698</v>
+        <v>19157.89151488701</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488701</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488698</v>
+        <v>19157.89151488704</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488699</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1262827.061650683</v>
+        <v>-1263187.1446664</v>
       </c>
       <c r="C6" t="n">
-        <v>-7506.617439213063</v>
+        <v>-7506.617439213092</v>
       </c>
       <c r="D6" t="n">
-        <v>6972.43488153271</v>
+        <v>6972.434881532681</v>
       </c>
       <c r="E6" t="n">
-        <v>-235915.3739605545</v>
+        <v>-235950.11188599</v>
       </c>
       <c r="F6" t="n">
-        <v>89497.0878468009</v>
+        <v>89462.34992136522</v>
       </c>
       <c r="G6" t="n">
-        <v>89497.08784680108</v>
+        <v>89462.34992136521</v>
       </c>
       <c r="H6" t="n">
-        <v>89497.08784680052</v>
+        <v>89462.34992136512</v>
       </c>
       <c r="I6" t="n">
-        <v>89497.08784680117</v>
+        <v>89462.34992136518</v>
       </c>
       <c r="J6" t="n">
-        <v>-124480.8015657521</v>
+        <v>-124515.5394911879</v>
       </c>
       <c r="K6" t="n">
-        <v>86001.84600577832</v>
+        <v>85967.10808034262</v>
       </c>
       <c r="L6" t="n">
-        <v>63510.71710363682</v>
+        <v>63510.71710363665</v>
       </c>
       <c r="M6" t="n">
-        <v>-2116.592838243363</v>
+        <v>-2116.592838243319</v>
       </c>
       <c r="N6" t="n">
-        <v>82938.43509726846</v>
+        <v>82938.43509726861</v>
       </c>
       <c r="O6" t="n">
-        <v>82938.43509726849</v>
+        <v>82938.43509726842</v>
       </c>
       <c r="P6" t="n">
-        <v>82938.43509726846</v>
+        <v>82938.43509726852</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776331</v>
+        <v>13.5807164877632</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776308</v>
+        <v>13.5807164877632</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776331</v>
+        <v>13.5807164877632</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>206.7132681013597</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0.5650514528869621</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>198.3115764370463</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.8622246646162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>58.82417042364369</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>77.32213796411955</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>68.83597359320424</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>13.0915833291925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.557513963650944e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-8.410876592902554e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182639</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>614.59004755871</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946151</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724565</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,28 +33497,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>150.2061940096332</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>704.1404939038099</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>659.9976957396707</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,10 +34208,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.392684868584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>677.2750468965965</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34790,7 +34790,7 @@
         <v>472.1064209457217</v>
       </c>
       <c r="O3" t="n">
-        <v>437.3944591216307</v>
+        <v>437.3944591216305</v>
       </c>
       <c r="P3" t="n">
         <v>309.0840727593488</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383897</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>471.9938031142656</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501707</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.048271228012</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37005,7 +37005,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37145,28 +37145,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7987818204766</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37938,7 +37938,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
         <v>418.6266618111712</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.551245894225</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>535.1410129745782</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
